--- a/inst/extdata/2.0.0/metadata/demo/ADAM_METADATA.xlsx
+++ b/inst/extdata/2.0.0/metadata/demo/ADAM_METADATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\packages\defineR\inst\extdata\2.0.0\metadata\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24ED714-36E0-49F4-A895-1500BB5BAF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{579895CB-62A5-4883-AC35-12BD39D7390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853"/>
+    <workbookView xWindow="3870" yWindow="4560" windowWidth="24510" windowHeight="13305" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="DEFINE_HEADER_METADATA" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VARIABLE_METADATA!$A$1:$P$104</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,67 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Chris Holland</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Chris Holland:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DISPLAYID should match the LEAFID in EXTERNAL_LINKS
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Chris Holland:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Note that the same where clause needed for the Table 14.2.1 is needed here, so the same WERECLAUSEOID is used</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="533">
   <si>
     <t>STUDYID, USUBJID</t>
   </si>
@@ -961,18 +902,12 @@
     <t>http://www.cdisc.org/ns/odm/v1.2 util/adamres-draft2.xsd</t>
   </si>
   <si>
-    <t>CHANGEFROMBASELINE</t>
-  </si>
-  <si>
     <t>AVAL-BASE</t>
   </si>
   <si>
     <t>if non-null then PAIN EVENT</t>
   </si>
   <si>
-    <t>RESPONDER</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -1108,9 +1043,6 @@
     <t>COMMENTOID</t>
   </si>
   <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY</t>
-  </si>
-  <si>
     <t>Soft</t>
   </si>
   <si>
@@ -1129,9 +1061,6 @@
     <t>GLUC</t>
   </si>
   <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.URINALYSIS</t>
-  </si>
-  <si>
     <t>URINALYSIS</t>
   </si>
   <si>
@@ -1153,9 +1082,6 @@
     <t>COM.CRIT1</t>
   </si>
   <si>
-    <t>COM.CQ01NAME</t>
-  </si>
-  <si>
     <t>LeafPageRef</t>
   </si>
   <si>
@@ -1192,12 +1118,6 @@
     <t>Secondary efficacy endpoint</t>
   </si>
   <si>
-    <t>WC.Table_14.2.1.1</t>
-  </si>
-  <si>
-    <t>WC.Figure_14.2.1.1</t>
-  </si>
-  <si>
     <t>ADEF.ITTFL</t>
   </si>
   <si>
@@ -1205,9 +1125,6 @@
   </si>
   <si>
     <t>ADEF.PARAMCD</t>
-  </si>
-  <si>
-    <t>WC.ITTFL</t>
   </si>
   <si>
     <t>NE</t>
@@ -1301,9 +1218,6 @@
     <t>Incidence Rates of TEAEs by System Organ Class and Preferred Term</t>
   </si>
   <si>
-    <t>WC.Table_14.3.2.1</t>
-  </si>
-  <si>
     <t>SAP_Section_9.3.1</t>
   </si>
   <si>
@@ -1457,263 +1371,293 @@
     <t>ADSL.TRT01AN</t>
   </si>
   <si>
-    <t>COM.SEEVALUELEVEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">See parameter value-level metadata </t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>Censoring algorithm for Time to First Pain Relief</t>
+  </si>
+  <si>
+    <t>Event descriptions for Time to First Pain Relief</t>
+  </si>
+  <si>
+    <t>if pain relief occurs before worsening, then CNSR=0; else if worsening from pain data, then CNSR=1; else if worsening from AE data, then CNSR=3; else if no relief and no worsening at time of last observation, then CNSR=4</t>
+  </si>
+  <si>
+    <t>No relief and no worsening at last assessment</t>
+  </si>
+  <si>
+    <t>NO RELIEF AND NO WORSENING AT LAST ASSESSMENT</t>
+  </si>
+  <si>
+    <t>if CNSR=0, then EVNTDESC=PAIN RELIEF; if CNSR=1, then EVNTDESC=PAIN WORSENING PRIOR TO RELIEF; if CNSR=2, then EVNTDESC=PAIN ADVERSE EVENT PRIOR TO RELIEF; if CNSR=3, then EVNTDESC=NO RELIEF AND NO WORSENING AT LAST ASSESSMENT</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>$50</t>
+  </si>
+  <si>
+    <t>Event description</t>
+  </si>
+  <si>
+    <t>BLACK OR AFRICAN AMERICAN</t>
+  </si>
+  <si>
+    <t>ASIAN</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>COM.ADAE</t>
+  </si>
+  <si>
+    <t>COM.ADSL</t>
+  </si>
+  <si>
+    <t>COM.ADEF</t>
+  </si>
+  <si>
+    <t>COM.ADTTE</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>Table 14.2.2</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Analysis start day calculation</t>
+  </si>
+  <si>
+    <t>Analysis start date calculation</t>
+  </si>
+  <si>
+    <t>AESTDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
+  </si>
+  <si>
+    <t>Analysis end date calculation</t>
+  </si>
+  <si>
+    <t>AEENDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
+  </si>
+  <si>
+    <t>Analysis end day calculation</t>
+  </si>
+  <si>
+    <t>ASTDT - ADSL.TRTSDT + 1</t>
+  </si>
+  <si>
+    <t>AENDT - ADSL.TRTEDT + 1</t>
+  </si>
+  <si>
+    <t>SRCVAR algorithm</t>
+  </si>
+  <si>
+    <t>SRCSEQ algorithm</t>
+  </si>
+  <si>
+    <t>ADaM-IG</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACN </t>
+  </si>
+  <si>
+    <t>AE relatedness derivation</t>
+  </si>
+  <si>
+    <t>Age group derivation</t>
+  </si>
+  <si>
+    <t>If AEREL=NOT RELATED  then NOT RELATED; Otherwise RELATED</t>
+  </si>
+  <si>
+    <t>If age&lt;55 then "&lt;55 years"; else if age&gt;=55 then "&gt;=55 YEARS"</t>
+  </si>
+  <si>
+    <t>Subject level analysis dataset</t>
+  </si>
+  <si>
+    <t>Basic data structure</t>
+  </si>
+  <si>
+    <t>Last non-missing value of AVAL prior to first dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRCVAR = ADEF if first event is a negative pain score or if worsening occurs before an improvement.  SRCVAR = ADAE if ADAE.CQ01NAM is non-missing on a date prior to a pain improvement or worsening.  </t>
+  </si>
+  <si>
+    <t>if SRCVAR=ADEF then SRCSEQ=ADEF.XPSEQ from the corresponding record; else if SRCVAR=ADAE then SRCSEQ=ADAE.AESEQ from the corresponding record.</t>
+  </si>
+  <si>
+    <t>Occurrence data structure</t>
+  </si>
+  <si>
+    <t>ORDERNUMBER</t>
+  </si>
+  <si>
+    <t>CODELISTCODE</t>
+  </si>
+  <si>
+    <t>CODELISTITEMCODE</t>
+  </si>
+  <si>
+    <t>C66767</t>
+  </si>
+  <si>
+    <t>C49503</t>
+  </si>
+  <si>
+    <t>C49504</t>
+  </si>
+  <si>
+    <t>C49505</t>
+  </si>
+  <si>
+    <t>C49501</t>
+  </si>
+  <si>
+    <t>C49502</t>
+  </si>
+  <si>
+    <t>C48660</t>
+  </si>
+  <si>
+    <t>C17998</t>
+  </si>
+  <si>
+    <t>C66796</t>
+  </si>
+  <si>
+    <t>C41338</t>
+  </si>
+  <si>
+    <t>C41339</t>
+  </si>
+  <si>
+    <t>C41340</t>
+  </si>
+  <si>
+    <t>C66781</t>
+  </si>
+  <si>
+    <t>C29848</t>
+  </si>
+  <si>
+    <t>C66731</t>
+  </si>
+  <si>
+    <t>C16576</t>
+  </si>
+  <si>
+    <t>C20197</t>
+  </si>
+  <si>
+    <t>C74457</t>
+  </si>
+  <si>
+    <t>C16352</t>
+  </si>
+  <si>
+    <t>C41260</t>
+  </si>
+  <si>
+    <t>C41261</t>
+  </si>
+  <si>
+    <t>DATASETORDER</t>
+  </si>
+  <si>
+    <t>COMP.SEECODELIST</t>
+  </si>
+  <si>
+    <t>COMP.SEEVALUELEVEL</t>
+  </si>
+  <si>
+    <t>CHANGEFROMBASELINE</t>
+  </si>
+  <si>
+    <t>ADAE.ASTDT</t>
+  </si>
+  <si>
+    <t>ADAE.AENDT</t>
+  </si>
+  <si>
+    <t>ADAE.ASTDY</t>
+  </si>
+  <si>
+    <t>ADAE.AENDY</t>
+  </si>
+  <si>
+    <t>COMP.CQ01NAME</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCDOM</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCVAR</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCSEQ</t>
+  </si>
+  <si>
+    <t>RESPONDER</t>
+  </si>
+  <si>
     <t>TTPNRELF.CNSR</t>
   </si>
   <si>
     <t>TTPNRELF.EVNTDESC</t>
   </si>
   <si>
-    <t>Censoring algorithm for Time to First Pain Relief</t>
-  </si>
-  <si>
-    <t>Event descriptions for Time to First Pain Relief</t>
-  </si>
-  <si>
-    <t>if pain relief occurs before worsening, then CNSR=0; else if worsening from pain data, then CNSR=1; else if worsening from AE data, then CNSR=3; else if no relief and no worsening at time of last observation, then CNSR=4</t>
-  </si>
-  <si>
-    <t>No relief and no worsening at last assessment</t>
-  </si>
-  <si>
-    <t>NO RELIEF AND NO WORSENING AT LAST ASSESSMENT</t>
-  </si>
-  <si>
-    <t>if CNSR=0, then EVNTDESC=PAIN RELIEF; if CNSR=1, then EVNTDESC=PAIN WORSENING PRIOR TO RELIEF; if CNSR=2, then EVNTDESC=PAIN ADVERSE EVENT PRIOR TO RELIEF; if CNSR=3, then EVNTDESC=NO RELIEF AND NO WORSENING AT LAST ASSESSMENT</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>$50</t>
-  </si>
-  <si>
-    <t>Event description</t>
-  </si>
-  <si>
-    <t>BLACK OR AFRICAN AMERICAN</t>
-  </si>
-  <si>
-    <t>ASIAN</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>COM.ADAE</t>
-  </si>
-  <si>
-    <t>COM.ADSL</t>
-  </si>
-  <si>
-    <t>COM.ADEF</t>
-  </si>
-  <si>
-    <t>COM.ADTTE</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>Table 14.2.2</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Analysis start day calculation</t>
-  </si>
-  <si>
-    <t>ADAE.ASTDT</t>
-  </si>
-  <si>
-    <t>ADAE.AENDT</t>
-  </si>
-  <si>
-    <t>ADAE.ASTDY</t>
-  </si>
-  <si>
-    <t>ADAE.AENDY</t>
-  </si>
-  <si>
-    <t>Analysis start date calculation</t>
-  </si>
-  <si>
-    <t>AESTDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
-  </si>
-  <si>
-    <t>Analysis end date calculation</t>
-  </si>
-  <si>
-    <t>AEENDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
-  </si>
-  <si>
-    <t>Analysis end day calculation</t>
-  </si>
-  <si>
-    <t>ASTDT - ADSL.TRTSDT + 1</t>
-  </si>
-  <si>
-    <t>AENDT - ADSL.TRTEDT + 1</t>
-  </si>
-  <si>
-    <t>COMP.SEEVALUELEVEL</t>
-  </si>
-  <si>
-    <t>COMP.SEECODELIST</t>
-  </si>
-  <si>
-    <t>ADTTE.SRCDOM</t>
-  </si>
-  <si>
-    <t>ADTTE.SRCVAR</t>
-  </si>
-  <si>
-    <t>ADTTE.SRCSEQ</t>
-  </si>
-  <si>
-    <t>SRCVAR algorithm</t>
-  </si>
-  <si>
-    <t>SRCSEQ algorithm</t>
-  </si>
-  <si>
-    <t>ADaM-IG</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACN </t>
-  </si>
-  <si>
-    <t>AE relatedness derivation</t>
-  </si>
-  <si>
-    <t>Age group derivation</t>
-  </si>
-  <si>
-    <t>If AEREL=NOT RELATED  then NOT RELATED; Otherwise RELATED</t>
-  </si>
-  <si>
-    <t>If age&lt;55 then "&lt;55 years"; else if age&gt;=55 then "&gt;=55 YEARS"</t>
-  </si>
-  <si>
-    <t>Subject level analysis dataset</t>
-  </si>
-  <si>
-    <t>Basic data structure</t>
-  </si>
-  <si>
-    <t>COMP.CQ01NAME</t>
-  </si>
-  <si>
-    <t>Last non-missing value of AVAL prior to first dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRCVAR = ADEF if first event is a negative pain score or if worsening occurs before an improvement.  SRCVAR = ADAE if ADAE.CQ01NAM is non-missing on a date prior to a pain improvement or worsening.  </t>
-  </si>
-  <si>
-    <t>if SRCVAR=ADEF then SRCSEQ=ADEF.XPSEQ from the corresponding record; else if SRCVAR=ADAE then SRCSEQ=ADAE.AESEQ from the corresponding record.</t>
-  </si>
-  <si>
-    <t>Occurrence data structure</t>
-  </si>
-  <si>
-    <t>ORDERNUMBER</t>
-  </si>
-  <si>
-    <t>CODELISTCODE</t>
-  </si>
-  <si>
-    <t>CODELISTITEMCODE</t>
-  </si>
-  <si>
-    <t>C66767</t>
-  </si>
-  <si>
-    <t>C49503</t>
-  </si>
-  <si>
-    <t>C49504</t>
-  </si>
-  <si>
-    <t>C49505</t>
-  </si>
-  <si>
-    <t>C49501</t>
-  </si>
-  <si>
-    <t>C49502</t>
-  </si>
-  <si>
-    <t>C48660</t>
-  </si>
-  <si>
-    <t>C17998</t>
-  </si>
-  <si>
-    <t>C66796</t>
-  </si>
-  <si>
-    <t>C41338</t>
-  </si>
-  <si>
-    <t>C41339</t>
-  </si>
-  <si>
-    <t>C41340</t>
-  </si>
-  <si>
-    <t>C66781</t>
-  </si>
-  <si>
-    <t>C29848</t>
-  </si>
-  <si>
-    <t>C66731</t>
-  </si>
-  <si>
-    <t>C16576</t>
-  </si>
-  <si>
-    <t>C20197</t>
-  </si>
-  <si>
-    <t>C74457</t>
-  </si>
-  <si>
-    <t>C16352</t>
-  </si>
-  <si>
-    <t>C41260</t>
-  </si>
-  <si>
-    <t>C41261</t>
-  </si>
-  <si>
-    <t>DATASETORDER</t>
+    <t>LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY</t>
+  </si>
+  <si>
+    <t>LB.LBTESTCD.GLUC.LBCAT.URINALYSIS</t>
+  </si>
+  <si>
+    <t>Table_14.2.1.1</t>
+  </si>
+  <si>
+    <t>Figure_14.2.1.1</t>
+  </si>
+  <si>
+    <t>CQ01NAME</t>
+  </si>
+  <si>
+    <t>SEECODELIST</t>
+  </si>
+  <si>
+    <t>SEEVALUELEVEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1743,19 +1687,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1833,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1844,15 +1775,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1862,31 +1793,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1898,59 +1829,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1959,24 +1890,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1986,31 +1917,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2023,86 +1954,90 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2505,16 +2440,16 @@
         <v>93</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>285</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -2550,32 +2485,32 @@
         <v>273</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>274</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="18"/>
       <c r="E2" s="16" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>133</v>
@@ -2586,13 +2521,13 @@
         <v>275</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>261</v>
@@ -2603,13 +2538,13 @@
         <v>276</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>270</v>
@@ -2620,13 +2555,13 @@
         <v>277</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>264</v>
@@ -2634,19 +2569,19 @@
     </row>
     <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2654,13 +2589,13 @@
         <v>258</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C7" s="27">
         <v>302</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>278</v>
@@ -2671,13 +2606,13 @@
         <v>265</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C8" s="27">
         <v>352</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>279</v>
@@ -2685,19 +2620,19 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2705,13 +2640,13 @@
         <v>281</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>280</v>
@@ -2719,13 +2654,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2674,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="A1:L5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2766,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>5</v>
@@ -2793,7 +2728,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -2816,22 +2751,22 @@
         <v>236</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>237</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="K2" s="45" t="s">
         <v>206</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -2863,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="K3" s="45" t="s">
         <v>145</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -2892,7 +2827,7 @@
         <v>236</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>14</v>
@@ -2901,13 +2836,13 @@
         <v>240</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>175</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2930,7 +2865,7 @@
         <v>236</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H5" s="46" t="s">
         <v>241</v>
@@ -2939,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>222</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3040,7 +2975,7 @@
       <c r="K12" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3052,8 +2987,8 @@
   <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:IV38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3068,7 +3003,7 @@
     <col min="9" max="9" width="20.42578125" style="51" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="51" customWidth="1"/>
     <col min="11" max="11" width="25.28515625" style="51" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" style="51" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" style="51" customWidth="1"/>
     <col min="13" max="16" width="17.7109375" style="51" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="53" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="53"/>
@@ -3094,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>20</v>
@@ -3103,7 +3038,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>23</v>
@@ -3322,7 +3257,7 @@
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
       <c r="I7" s="57" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="57"/>
@@ -3432,7 +3367,7 @@
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="61"/>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="113" t="s">
         <v>148</v>
       </c>
       <c r="M10" s="61" t="s">
@@ -3470,8 +3405,8 @@
       </c>
       <c r="J11" s="63"/>
       <c r="K11" s="61"/>
-      <c r="L11" s="61" t="s">
-        <v>489</v>
+      <c r="L11" s="113" t="s">
+        <v>512</v>
       </c>
       <c r="M11" s="61" t="s">
         <v>150</v>
@@ -3754,7 +3689,7 @@
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="J19" s="59"/>
       <c r="K19" s="57"/>
@@ -3790,7 +3725,7 @@
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="57"/>
@@ -3830,8 +3765,8 @@
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
-      <c r="L21" s="63" t="s">
-        <v>489</v>
+      <c r="L21" s="114" t="s">
+        <v>512</v>
       </c>
       <c r="M21" s="57" t="s">
         <v>165</v>
@@ -3868,8 +3803,8 @@
       </c>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="63" t="s">
-        <v>489</v>
+      <c r="L22" s="114" t="s">
+        <v>512</v>
       </c>
       <c r="M22" s="57" t="s">
         <v>165</v>
@@ -3910,7 +3845,7 @@
         <v>168</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>11</v>
@@ -3948,7 +3883,7 @@
         <v>170</v>
       </c>
       <c r="M24" s="64" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N24" s="64" t="s">
         <v>11</v>
@@ -3986,7 +3921,7 @@
         <v>173</v>
       </c>
       <c r="M25" s="64" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N25" s="61" t="s">
         <v>11</v>
@@ -4162,7 +4097,7 @@
       </c>
       <c r="J30" s="59"/>
       <c r="K30" s="57" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
@@ -4232,8 +4167,8 @@
       </c>
       <c r="J32" s="59"/>
       <c r="K32" s="57"/>
-      <c r="L32" s="61" t="s">
-        <v>489</v>
+      <c r="L32" s="113" t="s">
+        <v>512</v>
       </c>
       <c r="M32" s="61" t="s">
         <v>150</v>
@@ -4270,7 +4205,7 @@
       </c>
       <c r="J33" s="59"/>
       <c r="K33" s="57"/>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="113" t="s">
         <v>148</v>
       </c>
       <c r="M33" s="61" t="s">
@@ -4376,7 +4311,7 @@
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
       <c r="I36" s="57" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J36" s="63"/>
       <c r="K36" s="57"/>
@@ -4412,7 +4347,7 @@
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
       <c r="I37" s="57" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="J37" s="63"/>
       <c r="K37" s="57"/>
@@ -4452,15 +4387,15 @@
       </c>
       <c r="H38" s="57"/>
       <c r="I38" s="57" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J38" s="63" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K38" s="57"/>
       <c r="L38" s="63"/>
       <c r="M38" s="60" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N38" s="60" t="s">
         <v>11</v>
@@ -4490,15 +4425,15 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J39" s="63" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K39" s="57"/>
       <c r="L39" s="63"/>
       <c r="M39" s="60" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N39" s="60" t="s">
         <v>11</v>
@@ -4528,7 +4463,7 @@
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
       <c r="I40" s="57" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="J40" s="63"/>
       <c r="K40" s="57"/>
@@ -4562,7 +4497,7 @@
         <v>187</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H41" s="57"/>
       <c r="I41" s="57" t="s">
@@ -4570,8 +4505,8 @@
       </c>
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
-      <c r="L41" s="63" t="s">
-        <v>489</v>
+      <c r="L41" s="114" t="s">
+        <v>512</v>
       </c>
       <c r="M41" s="60" t="s">
         <v>186</v>
@@ -4612,7 +4547,7 @@
         <v>188</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N42" s="60" t="s">
         <v>11</v>
@@ -4642,7 +4577,7 @@
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
       <c r="I43" s="57" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="57"/>
@@ -4676,7 +4611,7 @@
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
       <c r="I44" s="57" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J44" s="59"/>
       <c r="K44" s="57"/>
@@ -4710,7 +4645,7 @@
         <v>191</v>
       </c>
       <c r="G45" s="57" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57" t="s">
@@ -4718,7 +4653,7 @@
       </c>
       <c r="J45" s="59"/>
       <c r="K45" s="57" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L45" s="57" t="s">
         <v>190</v>
@@ -4793,7 +4728,7 @@
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="68" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="M47" s="57"/>
       <c r="N47" s="60" t="s">
@@ -4829,7 +4764,7 @@
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="L48" s="68" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="M48" s="57"/>
       <c r="N48" s="60" t="s">
@@ -4901,7 +4836,7 @@
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
       <c r="L50" s="68" t="s">
-        <v>286</v>
+        <v>514</v>
       </c>
       <c r="M50" s="57"/>
       <c r="N50" s="60" t="s">
@@ -4937,10 +4872,10 @@
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="L51" s="68" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="M51" s="60" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N51" s="60" t="s">
         <v>11</v>
@@ -4973,11 +4908,11 @@
         <v>32</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K52" s="57"/>
       <c r="L52" s="68" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="M52" s="57"/>
       <c r="N52" s="60" t="s">
@@ -5014,7 +4949,7 @@
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
       <c r="M53" s="64" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N53" s="60" t="s">
         <v>11</v>
@@ -5202,7 +5137,7 @@
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
       <c r="I58" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J58" s="59"/>
       <c r="K58" s="57"/>
@@ -5278,8 +5213,8 @@
       </c>
       <c r="J60" s="59"/>
       <c r="K60" s="57"/>
-      <c r="L60" s="61" t="s">
-        <v>489</v>
+      <c r="L60" s="113" t="s">
+        <v>512</v>
       </c>
       <c r="M60" s="57"/>
       <c r="N60" s="57" t="s">
@@ -5314,7 +5249,7 @@
       </c>
       <c r="J61" s="59"/>
       <c r="K61" s="57"/>
-      <c r="L61" s="61" t="s">
+      <c r="L61" s="113" t="s">
         <v>148</v>
       </c>
       <c r="M61" s="61" t="s">
@@ -5386,7 +5321,7 @@
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
       <c r="I63" s="57" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="J63" s="59"/>
       <c r="K63" s="57"/>
@@ -5424,7 +5359,7 @@
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
       <c r="I64" s="57" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="J64" s="59"/>
       <c r="K64" s="57"/>
@@ -5462,7 +5397,7 @@
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
       <c r="I65" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J65" s="59"/>
       <c r="K65" s="57"/>
@@ -5498,11 +5433,11 @@
         <v>45</v>
       </c>
       <c r="G66" s="57" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H66" s="57"/>
       <c r="I66" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J66" s="59"/>
       <c r="K66" s="57"/>
@@ -5542,7 +5477,7 @@
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
       <c r="I67" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J67" s="59"/>
       <c r="K67" s="57"/>
@@ -5568,7 +5503,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>39</v>
@@ -5589,7 +5524,7 @@
       <c r="J68" s="59"/>
       <c r="K68" s="57"/>
       <c r="L68" s="60" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="M68" s="57"/>
       <c r="N68" s="57" t="s">
@@ -5610,7 +5545,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>39</v>
@@ -5629,7 +5564,7 @@
       <c r="J69" s="59"/>
       <c r="K69" s="57"/>
       <c r="L69" s="60" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="M69" s="57"/>
       <c r="N69" s="57" t="s">
@@ -5650,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>39</v>
@@ -5669,7 +5604,7 @@
       <c r="J70" s="59"/>
       <c r="K70" s="57"/>
       <c r="L70" s="60" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="M70" s="57"/>
       <c r="N70" s="57" t="s">
@@ -5686,7 +5621,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>39</v>
@@ -5705,7 +5640,7 @@
       <c r="J71" s="59"/>
       <c r="K71" s="57"/>
       <c r="L71" s="60" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="M71" s="57"/>
       <c r="N71" s="57" t="s">
@@ -5736,7 +5671,7 @@
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
       <c r="I72" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J72" s="59"/>
       <c r="K72" s="57"/>
@@ -5782,8 +5717,8 @@
       <c r="K73" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="L73" s="63" t="s">
-        <v>489</v>
+      <c r="L73" s="114" t="s">
+        <v>512</v>
       </c>
       <c r="M73" s="60" t="s">
         <v>211</v>
@@ -5816,13 +5751,13 @@
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
       <c r="I74" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J74" s="59"/>
       <c r="K74" s="57"/>
       <c r="L74" s="57"/>
       <c r="M74" s="60" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N74" s="57" t="s">
         <v>11</v>
@@ -5856,13 +5791,13 @@
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
       <c r="I75" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J75" s="59"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
       <c r="M75" s="60" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="N75" s="57" t="s">
         <v>11</v>
@@ -5896,7 +5831,7 @@
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
       <c r="I76" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J76" s="59"/>
       <c r="K76" s="57"/>
@@ -5942,8 +5877,8 @@
       <c r="K77" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="L77" s="63" t="s">
-        <v>489</v>
+      <c r="L77" s="114" t="s">
+        <v>512</v>
       </c>
       <c r="M77" s="60" t="s">
         <v>213</v>
@@ -5981,7 +5916,7 @@
       <c r="J78" s="57"/>
       <c r="K78" s="57"/>
       <c r="L78" s="60" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="M78" s="57"/>
       <c r="N78" s="57" t="s">
@@ -6054,8 +5989,8 @@
       </c>
       <c r="J80" s="59"/>
       <c r="K80" s="57"/>
-      <c r="L80" s="61" t="s">
-        <v>489</v>
+      <c r="L80" s="113" t="s">
+        <v>512</v>
       </c>
       <c r="M80" s="57" t="s">
         <v>218</v>
@@ -6094,7 +6029,7 @@
       <c r="K81" s="57"/>
       <c r="L81" s="57"/>
       <c r="M81" s="60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N81" s="57" t="s">
         <v>11</v>
@@ -6130,7 +6065,7 @@
       <c r="K82" s="64"/>
       <c r="L82" s="64"/>
       <c r="M82" s="64" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N82" s="57" t="s">
         <v>11</v>
@@ -6344,8 +6279,8 @@
       </c>
       <c r="J88" s="59"/>
       <c r="K88" s="57"/>
-      <c r="L88" s="61" t="s">
-        <v>489</v>
+      <c r="L88" s="113" t="s">
+        <v>512</v>
       </c>
       <c r="M88" s="57"/>
       <c r="N88" s="57" t="s">
@@ -6380,7 +6315,7 @@
       </c>
       <c r="J89" s="59"/>
       <c r="K89" s="57"/>
-      <c r="L89" s="61" t="s">
+      <c r="L89" s="113" t="s">
         <v>148</v>
       </c>
       <c r="M89" s="61" t="s">
@@ -6484,7 +6419,7 @@
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
       <c r="I92" s="57" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J92" s="63"/>
       <c r="K92" s="57"/>
@@ -6520,7 +6455,7 @@
       <c r="G93" s="57"/>
       <c r="H93" s="57"/>
       <c r="I93" s="57" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="J93" s="59"/>
       <c r="K93" s="57"/>
@@ -6558,13 +6493,13 @@
       </c>
       <c r="H94" s="57"/>
       <c r="I94" s="57" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J94" s="59"/>
       <c r="K94" s="57"/>
       <c r="L94" s="57"/>
       <c r="M94" s="57" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N94" s="57" t="s">
         <v>11</v>
@@ -6594,13 +6529,13 @@
       <c r="G95" s="57"/>
       <c r="H95" s="57"/>
       <c r="I95" s="57" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J95" s="59"/>
       <c r="K95" s="57"/>
       <c r="L95" s="57"/>
       <c r="M95" s="60" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="N95" s="57" t="s">
         <v>11</v>
@@ -6703,7 +6638,7 @@
       <c r="J98" s="57"/>
       <c r="K98" s="57"/>
       <c r="L98" s="68" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="M98" s="57"/>
       <c r="N98" s="60" t="s">
@@ -6739,7 +6674,7 @@
       <c r="J99" s="57"/>
       <c r="K99" s="57"/>
       <c r="L99" s="68" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="M99" s="57"/>
       <c r="N99" s="60" t="s">
@@ -6765,7 +6700,7 @@
         <v>50</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
@@ -6775,7 +6710,7 @@
       <c r="J100" s="57"/>
       <c r="K100" s="57"/>
       <c r="L100" s="68" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="M100" s="57"/>
       <c r="N100" s="60" t="s">
@@ -6811,7 +6746,7 @@
       <c r="J101" s="59"/>
       <c r="K101" s="57"/>
       <c r="L101" s="60" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="M101" s="57"/>
       <c r="N101" s="57" t="s">
@@ -6847,7 +6782,7 @@
       <c r="J102" s="59"/>
       <c r="K102" s="57"/>
       <c r="L102" s="60" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="M102" s="57"/>
       <c r="N102" s="57" t="s">
@@ -6883,7 +6818,7 @@
       <c r="J103" s="59"/>
       <c r="K103" s="57"/>
       <c r="L103" s="60" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="M103" s="57"/>
       <c r="N103" s="57" t="s">
@@ -6920,7 +6855,7 @@
       <c r="K104" s="57"/>
       <c r="L104" s="57"/>
       <c r="M104" s="60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N104" s="60" t="s">
         <v>11</v>
@@ -6939,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6968,10 +6903,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>16</v>
@@ -6995,7 +6930,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M1" s="69" t="s">
         <v>23</v>
@@ -7044,7 +6979,7 @@
       </c>
       <c r="J2" s="72"/>
       <c r="K2" s="73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L2" s="74"/>
       <c r="M2" s="72" t="s">
@@ -7081,24 +7016,24 @@
         <v>30</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>244</v>
       </c>
       <c r="J3" s="75"/>
       <c r="K3" s="75" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L3" s="76" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M3" s="72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N3" s="75"/>
       <c r="O3" s="77" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="P3" s="72" t="s">
         <v>11</v>
@@ -7138,13 +7073,13 @@
       </c>
       <c r="L4" s="76"/>
       <c r="M4" s="75" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N4" s="72" t="s">
-        <v>289</v>
+        <v>523</v>
       </c>
       <c r="O4" s="79" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="P4" s="72" t="s">
         <v>11</v>
@@ -7167,7 +7102,7 @@
         <v>96</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G5" s="72" t="s">
         <v>39</v>
@@ -7176,7 +7111,7 @@
         <v>243</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="J5" s="72"/>
       <c r="K5" s="73" t="s">
@@ -7184,10 +7119,10 @@
       </c>
       <c r="L5" s="74"/>
       <c r="M5" s="72" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="O5" s="72"/>
       <c r="P5" s="72" t="s">
@@ -7211,7 +7146,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>39</v>
@@ -7228,13 +7163,13 @@
       </c>
       <c r="L6" s="74"/>
       <c r="M6" s="75" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="N6" s="75" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="O6" s="75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P6" s="75" t="s">
         <v>11</v>
@@ -7263,7 +7198,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="I7" s="73" t="s">
         <v>229</v>
@@ -7274,10 +7209,10 @@
       </c>
       <c r="L7" s="74"/>
       <c r="M7" s="75" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="N7" s="75" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="O7" s="75" t="s">
         <v>228</v>
@@ -7300,12 +7235,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" sqref="A1:A65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="17" style="12" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" style="18" customWidth="1"/>
@@ -7331,83 +7266,83 @@
         <v>197</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="83" t="s">
         <v>286</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="82" t="s">
         <v>289</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="33" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7415,13 +7350,13 @@
         <v>156</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7429,13 +7364,13 @@
         <v>158</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7443,13 +7378,13 @@
         <v>168</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7457,13 +7392,13 @@
         <v>170</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7471,13 +7406,13 @@
         <v>173</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7485,13 +7420,13 @@
         <v>154</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7499,13 +7434,13 @@
         <v>188</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7513,13 +7448,13 @@
         <v>190</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7527,125 +7462,125 @@
         <v>192</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="77" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="77" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="77" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="84" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="77" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="77" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7653,13 +7588,13 @@
         <v>215</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7667,13 +7602,13 @@
         <v>148</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -7687,7 +7622,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7702,126 +7637,126 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="D1" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="E1" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="F1" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="G1" s="71" t="s">
         <v>332</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>336</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>339</v>
       </c>
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="B3" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E3" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>338</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>341</v>
       </c>
       <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>342</v>
+        <v>527</v>
       </c>
       <c r="B4" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>342</v>
+        <v>527</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E5" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="48" t="s">
         <v>338</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>341</v>
       </c>
       <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>368</v>
+        <v>168</v>
       </c>
       <c r="B6" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>133</v>
@@ -7831,19 +7766,19 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="B7" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>133</v>
@@ -7853,19 +7788,19 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>133</v>
@@ -7875,19 +7810,19 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="B9" s="73" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>242</v>
@@ -7897,19 +7832,19 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
-        <v>364</v>
+        <v>529</v>
       </c>
       <c r="B10" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>133</v>
@@ -7919,41 +7854,41 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
-        <v>364</v>
+        <v>529</v>
       </c>
       <c r="B11" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B12" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>133</v>
@@ -7971,7 +7906,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7987,7 +7922,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="90" t="s">
         <v>22</v>
@@ -7995,66 +7930,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>349</v>
+        <v>203</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>420</v>
+        <v>531</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>468</v>
+        <v>206</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>469</v>
+        <v>145</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>471</v>
+        <v>222</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8068,13 +8003,14 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="53"/>
+    <col min="1" max="1" width="29.85546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="53" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="53" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="95" customWidth="1"/>
     <col min="5" max="5" width="47" style="96" customWidth="1"/>
@@ -8090,10 +8026,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="97" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>25</v>
@@ -8117,7 +8053,7 @@
         <v>101</v>
       </c>
       <c r="J1" s="98" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="K1" s="94"/>
       <c r="L1" s="94"/>
@@ -8125,10 +8061,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>57</v>
@@ -8154,10 +8090,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>57</v>
@@ -8183,10 +8119,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>57</v>
@@ -8212,10 +8148,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>57</v>
@@ -8241,10 +8177,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>57</v>
@@ -8270,10 +8206,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>57</v>
@@ -8299,10 +8235,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>57</v>
@@ -8403,10 +8339,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>51</v>
@@ -8432,10 +8368,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="66" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="C13" s="66" t="s">
         <v>51</v>
@@ -8461,10 +8397,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="66" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>51</v>
@@ -8490,10 +8426,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>72</v>
@@ -8692,10 +8628,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="66" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>74</v>
@@ -8721,10 +8657,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C24" s="66" t="s">
         <v>74</v>
@@ -8750,10 +8686,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C25" s="66" t="s">
         <v>74</v>
@@ -8931,7 +8867,7 @@
       <c r="A32" s="66"/>
       <c r="B32" s="66"/>
       <c r="C32" s="61" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D32" s="102">
         <v>2</v>
@@ -8955,7 +8891,7 @@
       <c r="A33" s="66"/>
       <c r="B33" s="66"/>
       <c r="C33" s="61" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D33" s="102">
         <v>1</v>
@@ -9036,7 +8972,7 @@
         <v>125</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G36" s="61" t="s">
         <v>39</v>
@@ -9396,7 +9332,7 @@
         <v>255</v>
       </c>
       <c r="F51" s="108" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G51" s="68" t="s">
         <v>30</v>
@@ -9420,7 +9356,7 @@
         <v>256</v>
       </c>
       <c r="F52" s="108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G52" s="68" t="s">
         <v>30</v>
@@ -9444,7 +9380,7 @@
         <v>257</v>
       </c>
       <c r="F53" s="108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G53" s="68" t="s">
         <v>30</v>
@@ -9465,10 +9401,10 @@
         <v>4</v>
       </c>
       <c r="E54" s="108" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="F54" s="108" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G54" s="68" t="s">
         <v>30</v>
@@ -9531,16 +9467,16 @@
       <c r="A57" s="66"/>
       <c r="B57" s="66"/>
       <c r="C57" s="68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D57" s="102">
         <v>1</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G57" s="68" t="s">
         <v>30</v>
@@ -9555,7 +9491,7 @@
       <c r="A58" s="66"/>
       <c r="B58" s="66"/>
       <c r="C58" s="68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D58" s="102">
         <v>1</v>
@@ -9564,7 +9500,7 @@
         <v>125</v>
       </c>
       <c r="F58" s="108" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G58" s="61" t="s">
         <v>39</v>
@@ -9579,7 +9515,7 @@
       <c r="A59" s="66"/>
       <c r="B59" s="66"/>
       <c r="C59" s="68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D59" s="102">
         <v>2</v>
@@ -9588,7 +9524,7 @@
         <v>96</v>
       </c>
       <c r="F59" s="108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G59" s="61" t="s">
         <v>39</v>
@@ -9603,7 +9539,7 @@
       <c r="A60" s="66"/>
       <c r="B60" s="66"/>
       <c r="C60" s="68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D60" s="102">
         <v>3</v>
@@ -9612,7 +9548,7 @@
         <v>106</v>
       </c>
       <c r="F60" s="108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G60" s="61" t="s">
         <v>39</v>
@@ -9627,7 +9563,7 @@
       <c r="A61" s="66"/>
       <c r="B61" s="66"/>
       <c r="C61" s="68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D61" s="102">
         <v>4</v>
@@ -9636,7 +9572,7 @@
         <v>103</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G61" s="61" t="s">
         <v>39</v>
@@ -9651,7 +9587,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="66"/>
       <c r="C62" s="68" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D62" s="102">
         <v>1</v>
@@ -9675,7 +9611,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="66"/>
       <c r="C63" s="68" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D63" s="102">
         <v>1</v>
@@ -9699,16 +9635,16 @@
       <c r="A64" s="66"/>
       <c r="B64" s="66"/>
       <c r="C64" s="68" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D64" s="102">
         <v>1</v>
       </c>
       <c r="E64" s="110" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F64" s="108" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G64" s="61" t="s">
         <v>30</v>
@@ -9723,16 +9659,16 @@
       <c r="A65" s="66"/>
       <c r="B65" s="66"/>
       <c r="C65" s="68" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D65" s="102">
         <v>1</v>
       </c>
       <c r="E65" s="111" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F65" s="108" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G65" s="61" t="s">
         <v>30</v>
@@ -9747,16 +9683,16 @@
       <c r="A66" s="66"/>
       <c r="B66" s="66"/>
       <c r="C66" s="68" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D66" s="102">
         <v>1</v>
       </c>
       <c r="E66" s="105" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F66" s="66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G66" s="61" t="s">
         <v>30</v>
@@ -9771,7 +9707,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="66"/>
       <c r="C67" s="68" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D67" s="102">
         <v>1</v>
@@ -9804,7 +9740,7 @@
         <v>96</v>
       </c>
       <c r="F68" s="107" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G68" s="61" t="s">
         <v>39</v>
@@ -9828,7 +9764,7 @@
         <v>106</v>
       </c>
       <c r="F69" s="107" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G69" s="61" t="s">
         <v>39</v>
@@ -9849,10 +9785,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="107" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F70" s="107" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G70" s="61" t="s">
         <v>30</v>
@@ -9873,10 +9809,10 @@
         <v>2</v>
       </c>
       <c r="E71" s="107" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F71" s="107" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G71" s="61" t="s">
         <v>30</v>
@@ -9889,10 +9825,10 @@
     </row>
     <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="C72" s="112" t="s">
         <v>76</v>
@@ -9901,10 +9837,10 @@
         <v>1</v>
       </c>
       <c r="E72" s="105" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F72" s="105" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G72" s="61" t="s">
         <v>30</v>
@@ -9917,10 +9853,10 @@
     </row>
     <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C73" s="112" t="s">
         <v>76</v>
@@ -9929,10 +9865,10 @@
         <v>2</v>
       </c>
       <c r="E73" s="105" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F73" s="105" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G73" s="61" t="s">
         <v>30</v>
@@ -9945,10 +9881,10 @@
     </row>
     <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="C74" s="112" t="s">
         <v>76</v>
@@ -9957,10 +9893,10 @@
         <v>3</v>
       </c>
       <c r="E74" s="105" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G74" s="61" t="s">
         <v>30</v>
@@ -9978,12 +9914,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10002,16 +9936,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>294</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>296</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>12</v>
@@ -10020,28 +9954,28 @@
         <v>180</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="K1" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>300</v>
-      </c>
       <c r="N1" s="20" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10055,7 +9989,7 @@
         <v>259</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>268</v>
@@ -10068,19 +10002,19 @@
         <v>145</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>368</v>
+        <v>168</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>275</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="N2" s="24"/>
     </row>
@@ -10089,19 +10023,19 @@
         <v>265</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>201</v>
@@ -10110,25 +10044,25 @@
         <v>175</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>267</v>
@@ -10137,13 +10071,13 @@
         <v>266</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>269</v>
@@ -10152,16 +10086,16 @@
         <v>175</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>271</v>
@@ -10179,13 +10113,13 @@
         <v>282</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>194</v>
@@ -10194,19 +10128,19 @@
         <v>222</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>364</v>
+        <v>529</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>277</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N5" s="25"/>
     </row>
@@ -10218,16 +10152,16 @@
         <v>263</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>194</v>
@@ -10236,67 +10170,66 @@
         <v>222</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>364</v>
+        <v>529</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>277</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>206</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="33" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/2.0.0/metadata/demo/ADAM_METADATA.xlsx
+++ b/inst/extdata/2.0.0/metadata/demo/ADAM_METADATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\packages\defineR\inst\extdata\2.0.0\metadata\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{579895CB-62A5-4883-AC35-12BD39D7390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D67CDF14-037D-44F6-91DD-58B287466E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4560" windowWidth="24510" windowHeight="13305" tabRatio="790"/>
+    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DEFINE_HEADER_METADATA" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="523">
   <si>
     <t>STUDYID, USUBJID</t>
   </si>
@@ -1077,9 +1077,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>COM.CRIT1</t>
   </si>
   <si>
     <t>LeafPageRef</t>
@@ -1278,9 +1275,6 @@
     <t>See codelist</t>
   </si>
   <si>
-    <t>COM.SEECODELIST</t>
-  </si>
-  <si>
     <t>EX.EXENDTC converted to a SAS date for the last record in EX.  See SAP for missing or partial value imputations.</t>
   </si>
   <si>
@@ -1413,18 +1407,6 @@
     <t>WHITE</t>
   </si>
   <si>
-    <t>COM.ADAE</t>
-  </si>
-  <si>
-    <t>COM.ADSL</t>
-  </si>
-  <si>
-    <t>COM.ADEF</t>
-  </si>
-  <si>
-    <t>COM.ADTTE</t>
-  </si>
-  <si>
     <t>353</t>
   </si>
   <si>
@@ -1434,9 +1416,6 @@
     <t>354</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Analysis start day calculation</t>
   </si>
   <si>
@@ -1581,12 +1560,6 @@
     <t>DATASETORDER</t>
   </si>
   <si>
-    <t>COMP.SEECODELIST</t>
-  </si>
-  <si>
-    <t>COMP.SEEVALUELEVEL</t>
-  </si>
-  <si>
     <t>CHANGEFROMBASELINE</t>
   </si>
   <si>
@@ -1600,9 +1573,6 @@
   </si>
   <si>
     <t>ADAE.AENDY</t>
-  </si>
-  <si>
-    <t>COMP.CQ01NAME</t>
   </si>
   <si>
     <t>ADTTE.SRCDOM</t>
@@ -2378,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2440,16 +2410,16 @@
         <v>93</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>285</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2485,32 +2455,32 @@
         <v>273</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>347</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>274</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>377</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="18"/>
       <c r="E2" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>133</v>
@@ -2521,13 +2491,13 @@
         <v>275</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>261</v>
@@ -2538,13 +2508,13 @@
         <v>276</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>270</v>
@@ -2555,13 +2525,13 @@
         <v>277</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>264</v>
@@ -2569,19 +2539,19 @@
     </row>
     <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>395</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,13 +2559,13 @@
         <v>258</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C7" s="27">
         <v>302</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>278</v>
@@ -2606,13 +2576,13 @@
         <v>265</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C8" s="27">
         <v>352</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>279</v>
@@ -2623,16 +2593,16 @@
         <v>305</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2640,13 +2610,13 @@
         <v>281</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>280</v>
@@ -2654,13 +2624,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>385</v>
-      </c>
-      <c r="B11" t="s">
-        <v>384</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2673,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2701,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>5</v>
@@ -2760,13 +2730,13 @@
         <v>325</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K2" s="45" t="s">
         <v>206</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>456</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -2798,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K3" s="45" t="s">
         <v>145</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>457</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -2836,13 +2806,13 @@
         <v>240</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>175</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>458</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2874,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>222</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>459</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2987,8 +2957,8 @@
   <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:IV38"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3257,7 +3227,7 @@
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
       <c r="I7" s="57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="57"/>
@@ -3406,7 +3376,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="61"/>
       <c r="L11" s="113" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M11" s="61" t="s">
         <v>150</v>
@@ -3689,7 +3659,7 @@
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J19" s="59"/>
       <c r="K19" s="57"/>
@@ -3725,7 +3695,7 @@
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="57"/>
@@ -3766,7 +3736,7 @@
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
       <c r="L21" s="114" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M21" s="57" t="s">
         <v>165</v>
@@ -3804,7 +3774,7 @@
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
       <c r="L22" s="114" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M22" s="57" t="s">
         <v>165</v>
@@ -3845,7 +3815,7 @@
         <v>168</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>11</v>
@@ -3883,7 +3853,7 @@
         <v>170</v>
       </c>
       <c r="M24" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N24" s="64" t="s">
         <v>11</v>
@@ -3921,7 +3891,7 @@
         <v>173</v>
       </c>
       <c r="M25" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N25" s="61" t="s">
         <v>11</v>
@@ -4168,7 +4138,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="57"/>
       <c r="L32" s="113" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M32" s="61" t="s">
         <v>150</v>
@@ -4311,7 +4281,7 @@
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
       <c r="I36" s="57" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J36" s="63"/>
       <c r="K36" s="57"/>
@@ -4347,7 +4317,7 @@
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
       <c r="I37" s="57" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J37" s="63"/>
       <c r="K37" s="57"/>
@@ -4387,15 +4357,15 @@
       </c>
       <c r="H38" s="57"/>
       <c r="I38" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="J38" s="63" t="s">
-        <v>411</v>
+        <v>418</v>
+      </c>
+      <c r="J38" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="K38" s="57"/>
       <c r="L38" s="63"/>
       <c r="M38" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N38" s="60" t="s">
         <v>11</v>
@@ -4425,15 +4395,15 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="J39" s="63" t="s">
-        <v>411</v>
+        <v>418</v>
+      </c>
+      <c r="J39" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="K39" s="57"/>
       <c r="L39" s="63"/>
       <c r="M39" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N39" s="60" t="s">
         <v>11</v>
@@ -4463,7 +4433,7 @@
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
       <c r="I40" s="57" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J40" s="63"/>
       <c r="K40" s="57"/>
@@ -4506,7 +4476,7 @@
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
       <c r="L41" s="114" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M41" s="60" t="s">
         <v>186</v>
@@ -4547,7 +4517,7 @@
         <v>188</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N42" s="60" t="s">
         <v>11</v>
@@ -4577,7 +4547,7 @@
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
       <c r="I43" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="57"/>
@@ -4611,7 +4581,7 @@
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
       <c r="I44" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J44" s="59"/>
       <c r="K44" s="57"/>
@@ -4728,7 +4698,7 @@
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="68" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M47" s="57"/>
       <c r="N47" s="60" t="s">
@@ -4764,7 +4734,7 @@
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="L48" s="68" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M48" s="57"/>
       <c r="N48" s="60" t="s">
@@ -4836,7 +4806,7 @@
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
       <c r="L50" s="68" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M50" s="57"/>
       <c r="N50" s="60" t="s">
@@ -4872,10 +4842,10 @@
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="L51" s="68" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M51" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N51" s="60" t="s">
         <v>11</v>
@@ -4908,11 +4878,11 @@
         <v>32</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>345</v>
+        <v>203</v>
       </c>
       <c r="K52" s="57"/>
       <c r="L52" s="68" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M52" s="57"/>
       <c r="N52" s="60" t="s">
@@ -4949,7 +4919,7 @@
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
       <c r="M53" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N53" s="60" t="s">
         <v>11</v>
@@ -5137,7 +5107,7 @@
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
       <c r="I58" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J58" s="59"/>
       <c r="K58" s="57"/>
@@ -5214,7 +5184,7 @@
       <c r="J60" s="59"/>
       <c r="K60" s="57"/>
       <c r="L60" s="113" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M60" s="57"/>
       <c r="N60" s="57" t="s">
@@ -5321,7 +5291,7 @@
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
       <c r="I63" s="57" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J63" s="59"/>
       <c r="K63" s="57"/>
@@ -5359,7 +5329,7 @@
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
       <c r="I64" s="57" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J64" s="59"/>
       <c r="K64" s="57"/>
@@ -5397,7 +5367,7 @@
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
       <c r="I65" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J65" s="59"/>
       <c r="K65" s="57"/>
@@ -5437,7 +5407,7 @@
       </c>
       <c r="H66" s="57"/>
       <c r="I66" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J66" s="59"/>
       <c r="K66" s="57"/>
@@ -5477,7 +5447,7 @@
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
       <c r="I67" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J67" s="59"/>
       <c r="K67" s="57"/>
@@ -5524,7 +5494,7 @@
       <c r="J68" s="59"/>
       <c r="K68" s="57"/>
       <c r="L68" s="60" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="M68" s="57"/>
       <c r="N68" s="57" t="s">
@@ -5564,7 +5534,7 @@
       <c r="J69" s="59"/>
       <c r="K69" s="57"/>
       <c r="L69" s="60" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M69" s="57"/>
       <c r="N69" s="57" t="s">
@@ -5604,7 +5574,7 @@
       <c r="J70" s="59"/>
       <c r="K70" s="57"/>
       <c r="L70" s="60" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M70" s="57"/>
       <c r="N70" s="57" t="s">
@@ -5640,7 +5610,7 @@
       <c r="J71" s="59"/>
       <c r="K71" s="57"/>
       <c r="L71" s="60" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M71" s="57"/>
       <c r="N71" s="57" t="s">
@@ -5671,7 +5641,7 @@
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
       <c r="I72" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J72" s="59"/>
       <c r="K72" s="57"/>
@@ -5718,7 +5688,7 @@
         <v>96</v>
       </c>
       <c r="L73" s="114" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M73" s="60" t="s">
         <v>211</v>
@@ -5751,13 +5721,13 @@
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
       <c r="I74" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J74" s="59"/>
       <c r="K74" s="57"/>
       <c r="L74" s="57"/>
       <c r="M74" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N74" s="57" t="s">
         <v>11</v>
@@ -5791,13 +5761,13 @@
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
       <c r="I75" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J75" s="59"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
       <c r="M75" s="60" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N75" s="57" t="s">
         <v>11</v>
@@ -5831,7 +5801,7 @@
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
       <c r="I76" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J76" s="59"/>
       <c r="K76" s="57"/>
@@ -5878,7 +5848,7 @@
         <v>96</v>
       </c>
       <c r="L77" s="114" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M77" s="60" t="s">
         <v>213</v>
@@ -5916,7 +5886,7 @@
       <c r="J78" s="57"/>
       <c r="K78" s="57"/>
       <c r="L78" s="60" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M78" s="57"/>
       <c r="N78" s="57" t="s">
@@ -5990,7 +5960,7 @@
       <c r="J80" s="59"/>
       <c r="K80" s="57"/>
       <c r="L80" s="113" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M80" s="57" t="s">
         <v>218</v>
@@ -6029,7 +5999,7 @@
       <c r="K81" s="57"/>
       <c r="L81" s="57"/>
       <c r="M81" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N81" s="57" t="s">
         <v>11</v>
@@ -6065,7 +6035,7 @@
       <c r="K82" s="64"/>
       <c r="L82" s="64"/>
       <c r="M82" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N82" s="57" t="s">
         <v>11</v>
@@ -6280,7 +6250,7 @@
       <c r="J88" s="59"/>
       <c r="K88" s="57"/>
       <c r="L88" s="113" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M88" s="57"/>
       <c r="N88" s="57" t="s">
@@ -6419,7 +6389,7 @@
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
       <c r="I92" s="57" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J92" s="63"/>
       <c r="K92" s="57"/>
@@ -6455,7 +6425,7 @@
       <c r="G93" s="57"/>
       <c r="H93" s="57"/>
       <c r="I93" s="57" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J93" s="59"/>
       <c r="K93" s="57"/>
@@ -6493,13 +6463,13 @@
       </c>
       <c r="H94" s="57"/>
       <c r="I94" s="57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J94" s="59"/>
       <c r="K94" s="57"/>
       <c r="L94" s="57"/>
       <c r="M94" s="57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N94" s="57" t="s">
         <v>11</v>
@@ -6529,13 +6499,13 @@
       <c r="G95" s="57"/>
       <c r="H95" s="57"/>
       <c r="I95" s="57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J95" s="59"/>
       <c r="K95" s="57"/>
       <c r="L95" s="57"/>
       <c r="M95" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N95" s="57" t="s">
         <v>11</v>
@@ -6638,7 +6608,7 @@
       <c r="J98" s="57"/>
       <c r="K98" s="57"/>
       <c r="L98" s="68" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M98" s="57"/>
       <c r="N98" s="60" t="s">
@@ -6674,7 +6644,7 @@
       <c r="J99" s="57"/>
       <c r="K99" s="57"/>
       <c r="L99" s="68" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M99" s="57"/>
       <c r="N99" s="60" t="s">
@@ -6700,7 +6670,7 @@
         <v>50</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
@@ -6710,7 +6680,7 @@
       <c r="J100" s="57"/>
       <c r="K100" s="57"/>
       <c r="L100" s="68" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M100" s="57"/>
       <c r="N100" s="60" t="s">
@@ -6746,7 +6716,7 @@
       <c r="J101" s="59"/>
       <c r="K101" s="57"/>
       <c r="L101" s="60" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="M101" s="57"/>
       <c r="N101" s="57" t="s">
@@ -6782,7 +6752,7 @@
       <c r="J102" s="59"/>
       <c r="K102" s="57"/>
       <c r="L102" s="60" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="M102" s="57"/>
       <c r="N102" s="57" t="s">
@@ -6818,7 +6788,7 @@
       <c r="J103" s="59"/>
       <c r="K103" s="57"/>
       <c r="L103" s="60" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M103" s="57"/>
       <c r="N103" s="57" t="s">
@@ -6855,7 +6825,7 @@
       <c r="K104" s="57"/>
       <c r="L104" s="57"/>
       <c r="M104" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N104" s="60" t="s">
         <v>11</v>
@@ -6875,7 +6845,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7023,17 +6993,17 @@
       </c>
       <c r="J3" s="75"/>
       <c r="K3" s="75" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L3" s="76" t="s">
-        <v>345</v>
+        <v>203</v>
       </c>
       <c r="M3" s="72" t="s">
         <v>299</v>
       </c>
       <c r="N3" s="75"/>
       <c r="O3" s="77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P3" s="72" t="s">
         <v>11</v>
@@ -7076,10 +7046,10 @@
         <v>300</v>
       </c>
       <c r="N4" s="72" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="O4" s="79" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P4" s="72" t="s">
         <v>11</v>
@@ -7102,7 +7072,7 @@
         <v>96</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G5" s="72" t="s">
         <v>39</v>
@@ -7111,7 +7081,7 @@
         <v>243</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J5" s="72"/>
       <c r="K5" s="73" t="s">
@@ -7119,10 +7089,10 @@
       </c>
       <c r="L5" s="74"/>
       <c r="M5" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O5" s="72"/>
       <c r="P5" s="72" t="s">
@@ -7146,7 +7116,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>39</v>
@@ -7163,10 +7133,10 @@
       </c>
       <c r="L6" s="74"/>
       <c r="M6" s="75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N6" s="75" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="O6" s="75" t="s">
         <v>310</v>
@@ -7198,7 +7168,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I7" s="73" t="s">
         <v>229</v>
@@ -7209,10 +7179,10 @@
       </c>
       <c r="L7" s="74"/>
       <c r="M7" s="75" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N7" s="75" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="O7" s="75" t="s">
         <v>228</v>
@@ -7234,8 +7204,8 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A65536"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7266,21 +7236,21 @@
         <v>197</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C2" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C3" s="85" t="s">
         <v>341</v>
@@ -7291,10 +7261,10 @@
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C4" s="77" t="s">
         <v>341</v>
@@ -7305,44 +7275,44 @@
     </row>
     <row r="5" spans="1:4" s="33" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C5" s="87" t="s">
         <v>341</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="87" t="s">
         <v>341</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C7" s="87" t="s">
         <v>341</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7350,13 +7320,13 @@
         <v>156</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7364,13 +7334,13 @@
         <v>158</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7378,13 +7348,13 @@
         <v>168</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7392,13 +7362,13 @@
         <v>170</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C11" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7406,13 +7376,13 @@
         <v>173</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7420,13 +7390,13 @@
         <v>154</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7434,13 +7404,13 @@
         <v>188</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -7448,13 +7418,13 @@
         <v>190</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7462,125 +7432,125 @@
         <v>192</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="77" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="77" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="77" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="84" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="77" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C23" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="77" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7588,13 +7558,13 @@
         <v>215</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7602,13 +7572,13 @@
         <v>148</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>341</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7660,7 +7630,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>96</v>
@@ -7681,7 +7651,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B3" s="73" t="s">
         <v>106</v>
@@ -7702,7 +7672,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B4" s="73" t="s">
         <v>96</v>
@@ -7723,7 +7693,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>106</v>
@@ -7766,7 +7736,7 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B7" s="73" t="s">
         <v>96</v>
@@ -7775,7 +7745,7 @@
         <v>333</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>335</v>
@@ -7788,7 +7758,7 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>106</v>
@@ -7797,10 +7767,10 @@
         <v>333</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>133</v>
@@ -7810,7 +7780,7 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B9" s="73" t="s">
         <v>103</v>
@@ -7819,7 +7789,7 @@
         <v>333</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>335</v>
@@ -7832,7 +7802,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B10" s="73" t="s">
         <v>96</v>
@@ -7841,7 +7811,7 @@
         <v>333</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>335</v>
@@ -7854,7 +7824,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B11" s="73" t="s">
         <v>106</v>
@@ -7863,20 +7833,20 @@
         <v>333</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>335</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" s="73" t="s">
         <v>96</v>
@@ -7885,7 +7855,7 @@
         <v>333</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>335</v>
@@ -7938,7 +7908,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>287</v>
@@ -7946,18 +7916,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -8004,7 +7974,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8026,10 +7996,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="97" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>25</v>
@@ -8053,7 +8023,7 @@
         <v>101</v>
       </c>
       <c r="J1" s="98" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K1" s="94"/>
       <c r="L1" s="94"/>
@@ -8061,10 +8031,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>57</v>
@@ -8090,10 +8060,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>57</v>
@@ -8119,10 +8089,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>57</v>
@@ -8148,10 +8118,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>57</v>
@@ -8177,10 +8147,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>57</v>
@@ -8206,10 +8176,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>57</v>
@@ -8235,10 +8205,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="66" t="s">
         <v>490</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>497</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>57</v>
@@ -8339,10 +8309,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>51</v>
@@ -8368,10 +8338,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="66" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C13" s="66" t="s">
         <v>51</v>
@@ -8397,10 +8367,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="66" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>51</v>
@@ -8426,10 +8396,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>72</v>
@@ -8628,10 +8598,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="66" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>74</v>
@@ -8657,10 +8627,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C24" s="66" t="s">
         <v>74</v>
@@ -8686,10 +8656,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C25" s="66" t="s">
         <v>74</v>
@@ -8867,7 +8837,7 @@
       <c r="A32" s="66"/>
       <c r="B32" s="66"/>
       <c r="C32" s="61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D32" s="102">
         <v>2</v>
@@ -8891,7 +8861,7 @@
       <c r="A33" s="66"/>
       <c r="B33" s="66"/>
       <c r="C33" s="61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D33" s="102">
         <v>1</v>
@@ -8972,7 +8942,7 @@
         <v>125</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G36" s="61" t="s">
         <v>39</v>
@@ -9401,10 +9371,10 @@
         <v>4</v>
       </c>
       <c r="E54" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F54" s="108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G54" s="68" t="s">
         <v>30</v>
@@ -9572,7 +9542,7 @@
         <v>103</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G61" s="61" t="s">
         <v>39</v>
@@ -9587,7 +9557,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="66"/>
       <c r="C62" s="68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D62" s="102">
         <v>1</v>
@@ -9611,7 +9581,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="66"/>
       <c r="C63" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D63" s="102">
         <v>1</v>
@@ -9635,16 +9605,16 @@
       <c r="A64" s="66"/>
       <c r="B64" s="66"/>
       <c r="C64" s="68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D64" s="102">
         <v>1</v>
       </c>
       <c r="E64" s="110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F64" s="108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G64" s="61" t="s">
         <v>30</v>
@@ -9659,16 +9629,16 @@
       <c r="A65" s="66"/>
       <c r="B65" s="66"/>
       <c r="C65" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D65" s="102">
         <v>1</v>
       </c>
       <c r="E65" s="111" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F65" s="108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G65" s="61" t="s">
         <v>30</v>
@@ -9683,7 +9653,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="66"/>
       <c r="C66" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D66" s="102">
         <v>1</v>
@@ -9707,7 +9677,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="66"/>
       <c r="C67" s="68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D67" s="102">
         <v>1</v>
@@ -9740,7 +9710,7 @@
         <v>96</v>
       </c>
       <c r="F68" s="107" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G68" s="61" t="s">
         <v>39</v>
@@ -9764,7 +9734,7 @@
         <v>106</v>
       </c>
       <c r="F69" s="107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G69" s="61" t="s">
         <v>39</v>
@@ -9785,10 +9755,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F70" s="107" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G70" s="61" t="s">
         <v>30</v>
@@ -9809,10 +9779,10 @@
         <v>2</v>
       </c>
       <c r="E71" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F71" s="107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G71" s="61" t="s">
         <v>30</v>
@@ -9825,10 +9795,10 @@
     </row>
     <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C72" s="112" t="s">
         <v>76</v>
@@ -9837,10 +9807,10 @@
         <v>1</v>
       </c>
       <c r="E72" s="105" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F72" s="105" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G72" s="61" t="s">
         <v>30</v>
@@ -9853,10 +9823,10 @@
     </row>
     <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C73" s="112" t="s">
         <v>76</v>
@@ -9865,10 +9835,10 @@
         <v>2</v>
       </c>
       <c r="E73" s="105" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F73" s="105" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G73" s="61" t="s">
         <v>30</v>
@@ -9881,10 +9851,10 @@
     </row>
     <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C74" s="112" t="s">
         <v>76</v>
@@ -9893,10 +9863,10 @@
         <v>3</v>
       </c>
       <c r="E74" s="105" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G74" s="61" t="s">
         <v>30</v>
@@ -9915,9 +9885,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9942,7 +9914,7 @@
         <v>293</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>294</v>
@@ -9966,16 +9938,16 @@
         <v>297</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>298</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9989,7 +9961,7 @@
         <v>259</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>268</v>
@@ -10005,16 +9977,16 @@
         <v>168</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>275</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N2" s="24"/>
     </row>
@@ -10029,13 +10001,13 @@
         <v>306</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>356</v>
-      </c>
       <c r="F3" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>201</v>
@@ -10044,19 +10016,19 @@
         <v>175</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N3" s="24"/>
     </row>
@@ -10071,13 +10043,13 @@
         <v>266</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>269</v>
@@ -10086,16 +10058,16 @@
         <v>175</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>271</v>
@@ -10113,13 +10085,13 @@
         <v>282</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>194</v>
@@ -10128,16 +10100,16 @@
         <v>222</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>277</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>309</v>
@@ -10155,13 +10127,13 @@
         <v>307</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>194</v>
@@ -10170,16 +10142,16 @@
         <v>222</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>277</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>308</v>
@@ -10188,46 +10160,45 @@
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>388</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>206</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="33" t="s">
-        <v>385</v>
-      </c>
-    </row>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/inst/extdata/2.0.0/metadata/demo/ADAM_METADATA.xlsx
+++ b/inst/extdata/2.0.0/metadata/demo/ADAM_METADATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\packages\defineR\inst\extdata\2.0.0\metadata\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D67CDF14-037D-44F6-91DD-58B287466E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D40500-5FB7-43C9-BAB9-035A07C8A85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15840" tabRatio="900"/>
   </bookViews>
   <sheets>
     <sheet name="DEFINE_HEADER_METADATA" sheetId="4" r:id="rId1"/>
@@ -2348,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2433,7 +2433,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H65536"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9888,7 +9888,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
